--- a/team_specific_matrix/Dartmouth_B.xlsx
+++ b/team_specific_matrix/Dartmouth_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.1933701657458564</v>
       </c>
       <c r="C2">
-        <v>0.5483870967741935</v>
+        <v>0.569060773480663</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01290322580645161</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1612903225806452</v>
+        <v>0.143646408839779</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07741935483870968</v>
+        <v>0.07734806629834254</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04444444444444445</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03333333333333333</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6333333333333333</v>
+        <v>0.6574074074074074</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2888888888888889</v>
+        <v>0.2685185185185185</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6923076923076923</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1538461538461539</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1029411764705882</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01470588235294118</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05147058823529412</v>
+        <v>0.04571428571428571</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2426470588235294</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03676470588235294</v>
+        <v>0.03428571428571429</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1176470588235294</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="R6">
-        <v>0.06617647058823529</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="S6">
-        <v>0.3676470588235294</v>
+        <v>0.3657142857142857</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1234567901234568</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01234567901234568</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06172839506172839</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1358024691358025</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01234567901234568</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1481481481481481</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R7">
-        <v>0.1234567901234568</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="S7">
-        <v>0.382716049382716</v>
+        <v>0.3826086956521739</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06572769953051644</v>
+        <v>0.06049822064056939</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0187793427230047</v>
+        <v>0.01779359430604982</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05633802816901409</v>
+        <v>0.05338078291814947</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0892018779342723</v>
+        <v>0.103202846975089</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0187793427230047</v>
+        <v>0.01423487544483986</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.215962441314554</v>
+        <v>0.2241992882562278</v>
       </c>
       <c r="R8">
-        <v>0.08450704225352113</v>
+        <v>0.103202846975089</v>
       </c>
       <c r="S8">
-        <v>0.4507042253521127</v>
+        <v>0.4234875444839858</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07017543859649122</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008771929824561403</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06140350877192982</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07894736842105263</v>
+        <v>0.07947019867549669</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04385964912280702</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1491228070175439</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="R9">
-        <v>0.131578947368421</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="S9">
-        <v>0.456140350877193</v>
+        <v>0.4635761589403973</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09553349875930521</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.009925558312655087</v>
+        <v>0.01541425818882466</v>
       </c>
       <c r="E10">
-        <v>0.001240694789081886</v>
+        <v>0.0009633911368015414</v>
       </c>
       <c r="F10">
-        <v>0.07692307692307693</v>
+        <v>0.07418111753371869</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1066997518610422</v>
+        <v>0.1021194605009634</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01985111662531017</v>
+        <v>0.02119460500963391</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.21712158808933</v>
+        <v>0.2235067437379576</v>
       </c>
       <c r="R10">
-        <v>0.109181141439206</v>
+        <v>0.1107899807321773</v>
       </c>
       <c r="S10">
-        <v>0.3635235732009925</v>
+        <v>0.3651252408477842</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1171875</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1015625</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="K11">
-        <v>0.1640625</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L11">
-        <v>0.5625</v>
+        <v>0.5543478260869565</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0546875</v>
+        <v>0.04891304347826087</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7402597402597403</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1558441558441558</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="K12">
-        <v>0.01298701298701299</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="L12">
-        <v>0.03896103896103896</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05194805194805195</v>
+        <v>0.04629629629629629</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3636363636363636</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1363636363636364</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04166666666666666</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1597222222222222</v>
+        <v>0.1631578947368421</v>
       </c>
       <c r="I15">
-        <v>0.09027777777777778</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="J15">
-        <v>0.3611111111111111</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="K15">
-        <v>0.03472222222222222</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006944444444444444</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04861111111111111</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2569444444444444</v>
+        <v>0.2421052631578947</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02298850574712644</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.03448275862068965</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="I16">
-        <v>0.05747126436781609</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="J16">
-        <v>0.5977011494252874</v>
+        <v>0.6090909090909091</v>
       </c>
       <c r="K16">
-        <v>0.06896551724137931</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03448275862068965</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1149425287356322</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.06896551724137931</v>
+        <v>0.06363636363636363</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01893939393939394</v>
+        <v>0.01955307262569832</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1477272727272727</v>
+        <v>0.1396648044692737</v>
       </c>
       <c r="I17">
-        <v>0.09848484848484848</v>
+        <v>0.09217877094972067</v>
       </c>
       <c r="J17">
-        <v>0.4696969696969697</v>
+        <v>0.4720670391061452</v>
       </c>
       <c r="K17">
-        <v>0.08333333333333333</v>
+        <v>0.09217877094972067</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02272727272727273</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="N17">
-        <v>0.003787878787878788</v>
+        <v>0.002793296089385475</v>
       </c>
       <c r="O17">
-        <v>0.05303030303030303</v>
+        <v>0.06424581005586592</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1022727272727273</v>
+        <v>0.09497206703910614</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1294964028776978</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="I18">
-        <v>0.08633093525179857</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="J18">
-        <v>0.5107913669064749</v>
+        <v>0.5053191489361702</v>
       </c>
       <c r="K18">
-        <v>0.09352517985611511</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02877697841726619</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07913669064748201</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07194244604316546</v>
+        <v>0.09042553191489362</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01724137931034483</v>
+        <v>0.01541850220264317</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1910919540229885</v>
+        <v>0.1949339207048458</v>
       </c>
       <c r="I19">
-        <v>0.08333333333333333</v>
+        <v>0.08700440528634361</v>
       </c>
       <c r="J19">
-        <v>0.4540229885057471</v>
+        <v>0.4295154185022027</v>
       </c>
       <c r="K19">
-        <v>0.08477011494252873</v>
+        <v>0.09361233480176212</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01580459770114943</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="N19">
-        <v>0.001436781609195402</v>
+        <v>0.001101321585903084</v>
       </c>
       <c r="O19">
-        <v>0.08045977011494253</v>
+        <v>0.08149779735682819</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.07183908045977011</v>
+        <v>0.08370044052863436</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Dartmouth_B.xlsx
+++ b/team_specific_matrix/Dartmouth_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1933701657458564</v>
+        <v>0.1959798994974874</v>
       </c>
       <c r="C2">
-        <v>0.569060773480663</v>
+        <v>0.5678391959798995</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01657458563535912</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.143646408839779</v>
+        <v>0.1457286432160804</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07734806629834254</v>
+        <v>0.07537688442211055</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03703703703703703</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03703703703703703</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6574074074074074</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2685185185185185</v>
+        <v>0.2689075630252101</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08333333333333333</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7083333333333334</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2083333333333333</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09142857142857143</v>
+        <v>0.09595959595959595</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01714285714285714</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04571428571428571</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2342857142857143</v>
+        <v>0.2373737373737374</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03428571428571429</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1371428571428571</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="R6">
-        <v>0.07428571428571429</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="S6">
-        <v>0.3657142857142857</v>
+        <v>0.3535353535353535</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1043478260869565</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01739130434782609</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06956521739130435</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1217391304347826</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01739130434782609</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.1130434782608696</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="S7">
-        <v>0.3826086956521739</v>
+        <v>0.3712121212121212</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06049822064056939</v>
+        <v>0.05900621118012422</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01779359430604982</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05338078291814947</v>
+        <v>0.04968944099378882</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.103202846975089</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01423487544483986</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2241992882562278</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="R8">
-        <v>0.103202846975089</v>
+        <v>0.1149068322981366</v>
       </c>
       <c r="S8">
-        <v>0.4234875444839858</v>
+        <v>0.4254658385093168</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06622516556291391</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006622516556291391</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06622516556291391</v>
+        <v>0.06547619047619048</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07947019867549669</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03973509933774835</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1456953642384106</v>
+        <v>0.1488095238095238</v>
       </c>
       <c r="R9">
-        <v>0.1324503311258278</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S9">
-        <v>0.4635761589403973</v>
+        <v>0.4404761904761905</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08670520231213873</v>
+        <v>0.08133561643835617</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01541425818882466</v>
+        <v>0.01626712328767123</v>
       </c>
       <c r="E10">
-        <v>0.0009633911368015414</v>
+        <v>0.0008561643835616438</v>
       </c>
       <c r="F10">
-        <v>0.07418111753371869</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1021194605009634</v>
+        <v>0.09845890410958905</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02119460500963391</v>
+        <v>0.01969178082191781</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2235067437379576</v>
+        <v>0.226027397260274</v>
       </c>
       <c r="R10">
-        <v>0.1107899807321773</v>
+        <v>0.113013698630137</v>
       </c>
       <c r="S10">
-        <v>0.3651252408477842</v>
+        <v>0.3690068493150685</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1141304347826087</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.108695652173913</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="K11">
-        <v>0.1739130434782609</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L11">
-        <v>0.5543478260869565</v>
+        <v>0.536697247706422</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04891304347826087</v>
+        <v>0.04128440366972477</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7592592592592593</v>
+        <v>0.7398373983739838</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1481481481481481</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="K12">
-        <v>0.009259259259259259</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="L12">
-        <v>0.03703703703703703</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04629629629629629</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5185185185185185</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3703703703703703</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04210526315789474</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1631578947368421</v>
+        <v>0.1767441860465116</v>
       </c>
       <c r="I15">
-        <v>0.08421052631578947</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="J15">
-        <v>0.3736842105263158</v>
+        <v>0.3767441860465116</v>
       </c>
       <c r="K15">
-        <v>0.03684210526315789</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005263157894736842</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05263157894736842</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2421052631578947</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,31 +1336,31 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01818181818181818</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.05454545454545454</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="I16">
-        <v>0.04545454545454546</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="J16">
-        <v>0.6090909090909091</v>
+        <v>0.5867768595041323</v>
       </c>
       <c r="K16">
-        <v>0.08181818181818182</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03636363636363636</v>
+        <v>0.03305785123966942</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="O16">
         <v>0.09090909090909091</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.06363636363636363</v>
+        <v>0.06611570247933884</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01955307262569832</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1396648044692737</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="I17">
-        <v>0.09217877094972067</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J17">
-        <v>0.4720670391061452</v>
+        <v>0.4779411764705883</v>
       </c>
       <c r="K17">
-        <v>0.09217877094972067</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0223463687150838</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="N17">
-        <v>0.002793296089385475</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="O17">
-        <v>0.06424581005586592</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09497206703910614</v>
+        <v>0.0857843137254902</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005319148936170213</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1170212765957447</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="I18">
-        <v>0.09574468085106383</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="J18">
-        <v>0.5053191489361702</v>
+        <v>0.5044642857142857</v>
       </c>
       <c r="K18">
-        <v>0.0797872340425532</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02659574468085106</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0797872340425532</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09042553191489362</v>
+        <v>0.08482142857142858</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01541850220264317</v>
+        <v>0.01482213438735178</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1949339207048458</v>
+        <v>0.1966403162055336</v>
       </c>
       <c r="I19">
-        <v>0.08700440528634361</v>
+        <v>0.08596837944664032</v>
       </c>
       <c r="J19">
-        <v>0.4295154185022027</v>
+        <v>0.424901185770751</v>
       </c>
       <c r="K19">
-        <v>0.09361233480176212</v>
+        <v>0.09387351778656126</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.013215859030837</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="N19">
-        <v>0.001101321585903084</v>
+        <v>0.001976284584980237</v>
       </c>
       <c r="O19">
-        <v>0.08149779735682819</v>
+        <v>0.08498023715415019</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08370044052863436</v>
+        <v>0.08498023715415019</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Dartmouth_B.xlsx
+++ b/team_specific_matrix/Dartmouth_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1959798994974874</v>
+        <v>0.2019704433497537</v>
       </c>
       <c r="C2">
-        <v>0.5678391959798995</v>
+        <v>0.5566502463054187</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01507537688442211</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1457286432160804</v>
+        <v>0.1527093596059113</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07537688442211055</v>
+        <v>0.07389162561576355</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1851851851851852</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09595959595959595</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01515151515151515</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04040404040404041</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2373737373737374</v>
+        <v>0.2292682926829268</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0303030303030303</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1515151515151515</v>
+        <v>0.1560975609756098</v>
       </c>
       <c r="R6">
-        <v>0.07575757575757576</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="S6">
-        <v>0.3535353535353535</v>
+        <v>0.3609756097560975</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1060606060606061</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01515151515151515</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07575757575757576</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1136363636363636</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01515151515151515</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="R7">
-        <v>0.1363636363636364</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="S7">
-        <v>0.3712121212121212</v>
+        <v>0.3897058823529412</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05900621118012422</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01552795031055901</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04968944099378882</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1055900621118012</v>
+        <v>0.108187134502924</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01552795031055901</v>
+        <v>0.01461988304093567</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2142857142857143</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="R8">
-        <v>0.1149068322981366</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="S8">
-        <v>0.4254658385093168</v>
+        <v>0.4181286549707602</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07142857142857142</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005952380952380952</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06547619047619048</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08928571428571429</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03571428571428571</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1488095238095238</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="R9">
-        <v>0.1428571428571428</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="S9">
-        <v>0.4404761904761905</v>
+        <v>0.4463276836158192</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08133561643835617</v>
+        <v>0.07933884297520662</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01626712328767123</v>
+        <v>0.01570247933884298</v>
       </c>
       <c r="E10">
-        <v>0.0008561643835616438</v>
+        <v>0.0008264462809917355</v>
       </c>
       <c r="F10">
-        <v>0.07534246575342465</v>
+        <v>0.07768595041322314</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09845890410958905</v>
+        <v>0.09669421487603305</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01969178082191781</v>
+        <v>0.01983471074380165</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.226027397260274</v>
+        <v>0.2247933884297521</v>
       </c>
       <c r="R10">
-        <v>0.113013698630137</v>
+        <v>0.1148760330578512</v>
       </c>
       <c r="S10">
-        <v>0.3690068493150685</v>
+        <v>0.3702479338842975</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1192660550458716</v>
+        <v>0.1205357142857143</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1100917431192661</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K11">
-        <v>0.1926605504587156</v>
+        <v>0.1919642857142857</v>
       </c>
       <c r="L11">
-        <v>0.536697247706422</v>
+        <v>0.5401785714285714</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04128440366972477</v>
+        <v>0.04017857142857143</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7398373983739838</v>
+        <v>0.734375</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1707317073170732</v>
+        <v>0.171875</v>
       </c>
       <c r="K12">
-        <v>0.008130081300813009</v>
+        <v>0.0078125</v>
       </c>
       <c r="L12">
-        <v>0.03252032520325204</v>
+        <v>0.0390625</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04878048780487805</v>
+        <v>0.046875</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04186046511627907</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1767441860465116</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="I15">
-        <v>0.08372093023255814</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="J15">
-        <v>0.3767441860465116</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="K15">
-        <v>0.03720930232558139</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004651162790697674</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04651162790697674</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2325581395348837</v>
+        <v>0.2297297297297297</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02479338842975207</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.05785123966942149</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="I16">
-        <v>0.04132231404958678</v>
+        <v>0.04032258064516129</v>
       </c>
       <c r="J16">
-        <v>0.5867768595041323</v>
+        <v>0.5887096774193549</v>
       </c>
       <c r="K16">
-        <v>0.09090909090909091</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03305785123966942</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="N16">
-        <v>0.008264462809917356</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="O16">
-        <v>0.09090909090909091</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.06611570247933884</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0196078431372549</v>
+        <v>0.0188235294117647</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1372549019607843</v>
+        <v>0.1388235294117647</v>
       </c>
       <c r="I17">
-        <v>0.08823529411764706</v>
+        <v>0.09176470588235294</v>
       </c>
       <c r="J17">
-        <v>0.4779411764705883</v>
+        <v>0.48</v>
       </c>
       <c r="K17">
-        <v>0.09803921568627451</v>
+        <v>0.09647058823529411</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02450980392156863</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="N17">
-        <v>0.002450980392156863</v>
+        <v>0.002352941176470588</v>
       </c>
       <c r="O17">
-        <v>0.06617647058823529</v>
+        <v>0.06352941176470588</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0857843137254902</v>
+        <v>0.08470588235294117</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008928571428571428</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1160714285714286</v>
+        <v>0.1239316239316239</v>
       </c>
       <c r="I18">
-        <v>0.09821428571428571</v>
+        <v>0.09829059829059829</v>
       </c>
       <c r="J18">
-        <v>0.5044642857142857</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.08482142857142858</v>
+        <v>0.0811965811965812</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02232142857142857</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08035714285714286</v>
+        <v>0.0811965811965812</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08482142857142858</v>
+        <v>0.08547008547008547</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01482213438735178</v>
+        <v>0.01424501424501425</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1966403162055336</v>
+        <v>0.2003798670465337</v>
       </c>
       <c r="I19">
-        <v>0.08596837944664032</v>
+        <v>0.08736942070275404</v>
       </c>
       <c r="J19">
-        <v>0.424901185770751</v>
+        <v>0.4235517568850902</v>
       </c>
       <c r="K19">
-        <v>0.09387351778656126</v>
+        <v>0.09211775878442545</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01185770750988142</v>
+        <v>0.0113960113960114</v>
       </c>
       <c r="N19">
-        <v>0.001976284584980237</v>
+        <v>0.001899335232668566</v>
       </c>
       <c r="O19">
-        <v>0.08498023715415019</v>
+        <v>0.08452041785375118</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08498023715415019</v>
+        <v>0.08452041785375118</v>
       </c>
     </row>
   </sheetData>
